--- a/PROYECTO MR/IPS/IPS-MR-HU_GP.GP.002 Obtener Orden de Pago.xlsx
+++ b/PROYECTO MR/IPS/IPS-MR-HU_GP.GP.002 Obtener Orden de Pago.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF32A2C-25DC-44F8-B7B0-FBF011B906DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51221DF6-EC52-4209-ADAD-9C6467EBCCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATOS" sheetId="1" r:id="rId1"/>
@@ -789,14 +789,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>184896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>6407</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>166529</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>71279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -819,7 +819,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14377146"/>
+          <a:off x="0" y="13519896"/>
           <a:ext cx="11436407" cy="5601383"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -832,15 +832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>22414</xdr:rowOff>
+      <xdr:colOff>427504</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>136716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>265579</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>54715</xdr:rowOff>
+      <xdr:colOff>256054</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>169017</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -855,7 +855,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10241153" y="18412290"/>
+          <a:off x="10231628" y="17574092"/>
           <a:ext cx="794301" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -900,15 +900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>129428</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>734546</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -923,7 +923,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9244853" y="19240500"/>
+          <a:off x="9273428" y="18345150"/>
           <a:ext cx="2129118" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -961,6 +961,138 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>77567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>189955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52FB40A5-FE27-4578-857E-EF23FF9CECA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20651567"/>
+          <a:ext cx="11344275" cy="3160388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>4986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>350835</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>180073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDDED362-080A-470B-9C27-F17CACBF64DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11610974" y="20007486"/>
+          <a:ext cx="7027861" cy="3985087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>710875</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>59511</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>69920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667C58FD-6E6E-44A2-9C74-F040C0BD17AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378875" y="24003000"/>
+          <a:ext cx="11540636" cy="6356420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1343,7 +1475,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12:K12"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1708,7 @@
     <hyperlink ref="B10" location="'07'!A1" display="CP07" xr:uid="{6044CB71-B971-4201-A682-8705A5131088}"/>
     <hyperlink ref="B11" location="'08'!A1" display="CP08" xr:uid="{A60C49EB-2E1B-4235-8441-CBA495C1A506}"/>
     <hyperlink ref="B12" location="'09'!A1" display="CP09" xr:uid="{91AF9392-746F-485D-B6C1-DBE9AAE2DDB7}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{24C82A72-E076-46E5-9DC6-3E1D3414693F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1584,10 +1717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B2:C74"/>
+  <dimension ref="B2:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,23 +1755,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1650,26 +1783,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="938d0e1b-9567-411b-aa47-f6f3901e4550">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6e613a74-a246-416e-8eb2-334c90f0b20a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100ACF38AF5FA4C3A4D8FE87FAC8D1411E0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="11829bb5b9bd30ceded3577c14e64361">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="938d0e1b-9567-411b-aa47-f6f3901e4550" xmlns:ns3="6e613a74-a246-416e-8eb2-334c90f0b20a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b81855eef454ab494e040454da733a9f" ns2:_="" ns3:_="">
     <xsd:import namespace="938d0e1b-9567-411b-aa47-f6f3901e4550"/>
@@ -1892,26 +2005,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70538FAC-D0CF-443B-80AB-336AA4E836B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="938d0e1b-9567-411b-aa47-f6f3901e4550"/>
-    <ds:schemaRef ds:uri="6e613a74-a246-416e-8eb2-334c90f0b20a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A82258F-E765-4916-980C-95EEAB6B2819}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="938d0e1b-9567-411b-aa47-f6f3901e4550">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6e613a74-a246-416e-8eb2-334c90f0b20a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C280DED6-73B4-4E94-9AB6-977D8F5304E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1928,4 +2042,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A82258F-E765-4916-980C-95EEAB6B2819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70538FAC-D0CF-443B-80AB-336AA4E836B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="938d0e1b-9567-411b-aa47-f6f3901e4550"/>
+    <ds:schemaRef ds:uri="6e613a74-a246-416e-8eb2-334c90f0b20a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>